--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alperen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCCE5EC-672E-4C4B-9ADC-AF1FCC9BB8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D1F860-3446-4C73-8D4B-1995AE83F421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,14 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="2">
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,65 +356,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>32835</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>7</v>
+        <v>32834</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,19 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alperen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D1F860-3446-4C73-8D4B-1995AE83F421}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ECF038-7F62-44F0-81FB-79B0EAD4D16E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hello World" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,14 +352,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>32830</v>
+      </c>
+    </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>32835</v>
@@ -372,6 +373,21 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32834</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>32831</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>32832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>32833</v>
       </c>
     </row>
   </sheetData>
